--- a/biology/Botanique/Alain_Faragou/Alain_Faragou.xlsx
+++ b/biology/Botanique/Alain_Faragou/Alain_Faragou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alain Faragou, né le 24 août 1952 à Oran en Algérie, est un concepteur paysagiste français, diplômé de l'ESAJP et membre de la Fédération française du paysage, de l'International Federation of Landscape Architects[réf. nécessaire] et de l'ICOMOS. Il exerce à Nice.
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir associé des études littéraires et techniques en horticulture et botanique qui influenceront sa carrière professionnelle, Alain Faragou obtient son diplôme de concepteur paysagiste à l’École supérieure d'architecture des jardins et des paysages de Paris en 1977. Dès 1978, il crée son agence, spécialisée dans la planification, la conception et la maîtrise de toutes opérations de paysage, d'urbanisme et d'environnement[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir associé des études littéraires et techniques en horticulture et botanique qui influenceront sa carrière professionnelle, Alain Faragou obtient son diplôme de concepteur paysagiste à l’École supérieure d'architecture des jardins et des paysages de Paris en 1977. Dès 1978, il crée son agence, spécialisée dans la planification, la conception et la maîtrise de toutes opérations de paysage, d'urbanisme et d'environnement.
 Sa rencontre avec Roberto Burle Marx à Rio de Janeiro (El Sitio – San Antonio de Bica) en 1987, l’influence et le guide dans ses moyens d’expression et dans la dimension qu’il accorde à l'articulation entre le construit et le milieu naturel vivant.
-Ses domaines de compétences regroupent des projets de différentes échelles, depuis le grand paysage et le territoire, à celles d’une ville, d’un site ou d’un jardin, combinant l'invention et le savoir-faire[non neutre][2]. Son travail pour la construction de nouveaux paysages repose sur la recherche d'un équilibre entre mémoire des lieux une perception contemporaine[Interprétation personnelle ?][source insuffisante][source secondaire nécessaire].
-Il concourt avec Jean Nouvel pour un projet de logements[3], l'agence Zaha Hadid (Londres) sur la requalification de la promenade des Anglais à Nice, l'agence MVRDV (Rotterdam) sur l’extension et le réaménagement d'un parc zoologique[4], et l'équipe d'urbanistes/architectes dont Sou Fujimoto, Cino Zucchi, Adrien Lambert, Frédéric Chartier, Pascale Dalix, Roland Carta[5] pour un projet de ville du bien-être dont ils sont tous lauréats[6].
+Ses domaines de compétences regroupent des projets de différentes échelles, depuis le grand paysage et le territoire, à celles d’une ville, d’un site ou d’un jardin, combinant l'invention et le savoir-faire[non neutre]. Son travail pour la construction de nouveaux paysages repose sur la recherche d'un équilibre entre mémoire des lieux une perception contemporaine[Interprétation personnelle ?][source insuffisante][source secondaire nécessaire].
+Il concourt avec Jean Nouvel pour un projet de logements, l'agence Zaha Hadid (Londres) sur la requalification de la promenade des Anglais à Nice, l'agence MVRDV (Rotterdam) sur l’extension et le réaménagement d'un parc zoologique, et l'équipe d'urbanistes/architectes dont Sou Fujimoto, Cino Zucchi, Adrien Lambert, Frédéric Chartier, Pascale Dalix, Roland Carta pour un projet de ville du bien-être dont ils sont tous lauréats.
 Son œuvre et son expérience s'inscrivent dans le mouvement et la dynamique du Paysage dans son sens le plus large[réf. souhaitée].
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Réalisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2018 – Parc de la Jane Andrée, Cap d'Antibes
 2018 – La route des esclaves, Bénin (Afrique)
@@ -586,7 +602,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Participation au Prix international André Le Nôtre 2013
 Lauréat Outdoor Design, "L’arrosage au fil du vent", design d’éolienne pour irrigation / Jardin Tuileries, Paris, 2009[réf. nécessaire]
@@ -622,7 +640,9 @@
           <t>Expositions et conférences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>"Paysages, glissements et inventions", Muséum d'Histoire Naturelle, Paris, 2018[réf. nécessaire]
 "Expériences de paysage - Méditerranée", Maison de l'Architecture et de la Ville PACA (Marseille), organisé par la Fédération Française du Paysage, 2017[réf. nécessaire]
@@ -664,7 +684,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Du paysage au jardin - A. Faragou, Architecte de Paysages - Éditions Grégoire Gardette, 2011, 171 p.  (ISBN 978 2 7466 3772 6)
 Objets urbains, vivre la ville autrement - Sophie Barbaux, 2010
